--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE8EEF1-3796-4967-81FF-E1418599866A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65938D13-F275-4490-9323-17D40043E710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>nombre</t>
   </si>
@@ -40,19 +40,40 @@
   </si>
   <si>
     <t>las_condes</t>
+  </si>
+  <si>
+    <t>titulo</t>
+  </si>
+  <si>
+    <t>Maipú</t>
+  </si>
+  <si>
+    <t>Cerrillos</t>
+  </si>
+  <si>
+    <t>La Reina</t>
+  </si>
+  <si>
+    <t>Las Condes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,40 +381,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65938D13-F275-4490-9323-17D40043E710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3FCC79-7B8E-4861-8F22-479B417C6BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="comunas" sheetId="1" r:id="rId1"/>
+    <sheet name="maipu" sheetId="2" r:id="rId2"/>
+    <sheet name="cerrillos" sheetId="3" r:id="rId3"/>
+    <sheet name="la_reina" sheetId="4" r:id="rId4"/>
+    <sheet name="las_condes" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="20">
   <si>
     <t>nombre</t>
   </si>
@@ -55,13 +59,43 @@
   </si>
   <si>
     <t>Las Condes</t>
+  </si>
+  <si>
+    <t>vista</t>
+  </si>
+  <si>
+    <t>id_comuna</t>
+  </si>
+  <si>
+    <t>vista1</t>
+  </si>
+  <si>
+    <t>vista2</t>
+  </si>
+  <si>
+    <t>vista3</t>
+  </si>
+  <si>
+    <t>vista4</t>
+  </si>
+  <si>
+    <t>vista5</t>
+  </si>
+  <si>
+    <t>vista6</t>
+  </si>
+  <si>
+    <t>vista7</t>
+  </si>
+  <si>
+    <t>vista8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +108,12 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -381,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,48 +432,924 @@
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6E881B-F2B6-4262-8F6D-A22265938ED3}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AB371E-7AA1-4BA4-9AFC-41AAAE23F4D0}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDAFECD-9D30-42D2-A937-A90746DCCA59}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3FCC79-7B8E-4861-8F22-479B417C6BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3617590-D3F3-4DDB-A074-956A1D739AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="22">
   <si>
     <t>nombre</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>vista8</t>
+  </si>
+  <si>
+    <t>vista_id</t>
+  </si>
+  <si>
+    <t>portada</t>
   </si>
 </sst>
 </file>
@@ -495,212 +501,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3617590-D3F3-4DDB-A074-956A1D739AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B1ED9-DBFC-4E20-8881-B8044D5BE79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
   <si>
     <t>nombre</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>portada</t>
+  </si>
+  <si>
+    <t>Vista 1</t>
+  </si>
+  <si>
+    <t>Vista 2</t>
+  </si>
+  <si>
+    <t>Vista 3</t>
+  </si>
+  <si>
+    <t>Vista 4</t>
+  </si>
+  <si>
+    <t>Vista 5</t>
+  </si>
+  <si>
+    <t>Vista 6</t>
+  </si>
+  <si>
+    <t>Vista 7</t>
+  </si>
+  <si>
+    <t>Vista 8</t>
   </si>
 </sst>
 </file>
@@ -501,15 +525,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -522,8 +546,11 @@
       <c r="D1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -536,8 +563,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -550,8 +580,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -564,8 +597,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -578,8 +614,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -592,8 +631,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -606,8 +648,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -620,8 +665,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -633,6 +681,9 @@
       </c>
       <c r="D9">
         <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B1ED9-DBFC-4E20-8881-B8044D5BE79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D8B6E6-1070-4519-9D95-923B9A7C1992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>nombre</t>
   </si>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,212 +694,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6E881B-F2B6-4262-8F6D-A22265938ED3}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B25"/>
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -909,212 +743,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AB371E-7AA1-4BA4-9AFC-41AAAE23F4D0}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B25"/>
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1124,212 +792,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDAFECD-9D30-42D2-A937-A90746DCCA59}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D8B6E6-1070-4519-9D95-923B9A7C1992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A611DF-543E-4104-B731-2820AA51F449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>nombre</t>
   </si>
@@ -119,6 +119,150 @@
   </si>
   <si>
     <t>Vista 8</t>
+  </si>
+  <si>
+    <t>vista9</t>
+  </si>
+  <si>
+    <t>Vista 9</t>
+  </si>
+  <si>
+    <t>vista10</t>
+  </si>
+  <si>
+    <t>Vista 10</t>
+  </si>
+  <si>
+    <t>vista11</t>
+  </si>
+  <si>
+    <t>Vista 11</t>
+  </si>
+  <si>
+    <t>vista12</t>
+  </si>
+  <si>
+    <t>Vista 12</t>
+  </si>
+  <si>
+    <t>vista13</t>
+  </si>
+  <si>
+    <t>Vista 13</t>
+  </si>
+  <si>
+    <t>vista14</t>
+  </si>
+  <si>
+    <t>Vista 14</t>
+  </si>
+  <si>
+    <t>vista15</t>
+  </si>
+  <si>
+    <t>Vista 15</t>
+  </si>
+  <si>
+    <t>vista16</t>
+  </si>
+  <si>
+    <t>Vista 16</t>
+  </si>
+  <si>
+    <t>vista17</t>
+  </si>
+  <si>
+    <t>Vista 17</t>
+  </si>
+  <si>
+    <t>vista18</t>
+  </si>
+  <si>
+    <t>Vista 18</t>
+  </si>
+  <si>
+    <t>vista19</t>
+  </si>
+  <si>
+    <t>Vista 19</t>
+  </si>
+  <si>
+    <t>vista20</t>
+  </si>
+  <si>
+    <t>Vista 20</t>
+  </si>
+  <si>
+    <t>vista21</t>
+  </si>
+  <si>
+    <t>Vista 21</t>
+  </si>
+  <si>
+    <t>vista22</t>
+  </si>
+  <si>
+    <t>Vista 22</t>
+  </si>
+  <si>
+    <t>vista23</t>
+  </si>
+  <si>
+    <t>Vista 23</t>
+  </si>
+  <si>
+    <t>vista24</t>
+  </si>
+  <si>
+    <t>Vista 24</t>
+  </si>
+  <si>
+    <t>vista25</t>
+  </si>
+  <si>
+    <t>Vista 25</t>
+  </si>
+  <si>
+    <t>vista26</t>
+  </si>
+  <si>
+    <t>Vista 26</t>
+  </si>
+  <si>
+    <t>vista27</t>
+  </si>
+  <si>
+    <t>Vista 27</t>
+  </si>
+  <si>
+    <t>vista28</t>
+  </si>
+  <si>
+    <t>Vista 28</t>
+  </si>
+  <si>
+    <t>vista29</t>
+  </si>
+  <si>
+    <t>Vista 29</t>
+  </si>
+  <si>
+    <t>vista30</t>
+  </si>
+  <si>
+    <t>Vista 30</t>
+  </si>
+  <si>
+    <t>vista31</t>
+  </si>
+  <si>
+    <t>Vista 31</t>
+  </si>
+  <si>
+    <t>vista32</t>
+  </si>
+  <si>
+    <t>Vista 32</t>
   </si>
 </sst>
 </file>
@@ -525,10 +669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,6 +828,414 @@
       </c>
       <c r="E9" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDAFECD-9D30-42D2-A937-A90746DCCA59}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A611DF-543E-4104-B731-2820AA51F449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82115F5D-9C79-4534-9129-FFC6B5907ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
   <si>
     <t>nombre</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Vista 5</t>
   </si>
   <si>
-    <t>Vista 6</t>
-  </si>
-  <si>
     <t>Vista 7</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>vista20</t>
   </si>
   <si>
-    <t>Vista 20</t>
-  </si>
-  <si>
     <t>vista21</t>
   </si>
   <si>
@@ -263,6 +257,15 @@
   </si>
   <si>
     <t>Vista 32</t>
+  </si>
+  <si>
+    <t>prueba 1</t>
+  </si>
+  <si>
+    <t>pagina 6</t>
+  </si>
+  <si>
+    <t>html 20</t>
   </si>
 </sst>
 </file>
@@ -671,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -793,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -810,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -827,415 +830,415 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>44</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>46</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
         <v>48</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>50</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82115F5D-9C79-4534-9129-FFC6B5907ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D1F515-049C-4662-98F6-24192F6532AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
   <si>
     <t>nombre</t>
   </si>
@@ -266,13 +266,97 @@
   </si>
   <si>
     <t>html 20</t>
+  </si>
+  <si>
+    <t>iframeLink</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYTQ2ZDAwZjgtMjkxOC00YzhhLTljNGQtZGZiMzJkMTBjMjk5IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiMDAwNmFiNGMtNDY1OS00MWMzLTk1NjMtOTVhZjMzODVkOTdlIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiNmEwMmNlNjgtOTY2Zi00Mzk0LTg0MDItMWFlOTc1YzM0YTJiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiNTc2M2YwOTMtYjc0ZC00MGZiLWJlNjYtNDEyOGZkOTAwMjRiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYTE0NmM4YTItMWM3Zi00ODRlLWEyNGQtNDFmNTk5MTNlNmQ2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYWNhMjEwODItMzVkMy00ZWExLWJhNTktY2RiN2IyOTEwMjM3IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiODRkZDAwZjItNjgyNi00OTZkLWI5NTQtYTFiYmJlMTdiZTkzIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiOTcxZTE2ZWUtYWE1NS00MjM2LWI1MGYtYTQ4NDIxOWNmYjVhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection1612323edf571ce0179e</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYTNlMDAwNzQtZjczNS00MTc1LWEwMTAtNjEyM2UwYjYxMTY1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZjUwNGJkMzctMGVhNC00ZjcyLWI3MjUtNWQ0NDlkZmVkZjEwIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZjkzMTkyMTMtZDM3ZC00N2MxLThhNzctMmMzYmVjZDEzOTkyIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYmEyMTQ2YjQtNTk2Ni00MGFmLTkyOTktN2Y4OTNjMzZhN2VhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiOTU0NmY1NmMtMDc5YS00OWUxLTg3ZGItZDVjN2I2MDU0ZWRkIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiOGE5OTQyZGYtODgwNS00OTc1LWEyYTAtOThiYzIwM2UwMjE1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiNzg3ZjA4MjItZTU2OS00MWU3LTkyOTMtYzlkZTk0NzMzMjljIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/distancia/Index.html?CUT_COM=13123</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZmVlMzI4MDEtNjJiOS00ODM1LTg2YzMtYjgwNTM2MDczYjFhIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZmIwNzVjZWYtZGMyZS00ZTI3LTg3NzctMWUyY2I4N2YyMGRjIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiMWEzZmNjNzYtYWZiMC00NmEyLWFmNTItMmUxY2U4M2FiNmUwIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionda6fb149b3546bbb76b2</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiOTdiNzI1ZjktZWM4MS00ODNiLTg3YmMtZDg1NzQ4ZmQ3MTM2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiMTE4NDhjNGUtMDkzNC00MThkLTg0ZDMtNjU0N2FiNzM1MWU4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiN2RiNDAxYWQtZjIyZi00ZmQ5LWE0M2UtOTBkMGQ3NWEyNGM5IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectiond3ed353228b160739c25</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiMzlhNjBlMTItNzFiMy00ODMxLWFhZjQtMTQ1MmY1NGMxM2U1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSectionf88eb5103ae7ebb17148</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYmMyMjlkYzItMWJmOC00NTE5LTkyMTktY2RlZTkwNTg2ODk0IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYTE2MWU2NzktNDM4ZS00N2IyLWI1ZTYtYjQyNjFlYjJkNjI4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiMzkxMWYyN2EtOWM0Yi00NjAxLTkxY2QtYWE0YmFiNjNkMjZlIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiOGYzMjUxZTctY2UzMC00YmQwLThhMGQtZWQwMDZmOGVjYjgwIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +376,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,7 +401,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -309,17 +409,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -672,15 +800,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -696,8 +824,11 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -713,8 +844,11 @@
       <c r="E2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -730,8 +864,11 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -747,8 +884,11 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -764,8 +904,11 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -781,8 +924,11 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -798,8 +944,11 @@
       <c r="E7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -815,8 +964,11 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -832,8 +984,11 @@
       <c r="E9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -849,8 +1004,11 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -866,8 +1024,11 @@
       <c r="E11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -883,8 +1044,11 @@
       <c r="E12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -900,8 +1064,11 @@
       <c r="E13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -917,8 +1084,11 @@
       <c r="E14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -934,8 +1104,11 @@
       <c r="E15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -951,8 +1124,11 @@
       <c r="E16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -968,8 +1144,11 @@
       <c r="E17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -985,8 +1164,11 @@
       <c r="E18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1002,8 +1184,11 @@
       <c r="E19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1019,8 +1204,11 @@
       <c r="E20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1036,8 +1224,11 @@
       <c r="E21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1053,8 +1244,11 @@
       <c r="E22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1070,8 +1264,11 @@
       <c r="E23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1087,8 +1284,11 @@
       <c r="E24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1104,8 +1304,11 @@
       <c r="E25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1121,8 +1324,11 @@
       <c r="E26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1138,8 +1344,11 @@
       <c r="E27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -1155,8 +1364,11 @@
       <c r="E28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1173,7 +1385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1190,7 +1402,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1207,7 +1419,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1243,6 +1455,34 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F14" r:id="rId1" xr:uid="{B61BABAA-9EC9-4C68-82B4-B544FEDE5030}"/>
+    <hyperlink ref="F16" r:id="rId2" xr:uid="{DAB7966F-A3C0-4055-B795-32C52B6340DE}"/>
+    <hyperlink ref="F15" r:id="rId3" xr:uid="{CE9A5EFD-9767-4463-AD62-2FA2AD26F08F}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{B55325C7-7312-4742-A4CC-ACC00A52E9F9}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{4F02E340-4B99-4BAE-8059-E5C4B0A8692A}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{0A52EBC6-0E22-4242-81E2-CDF61CE93879}"/>
+    <hyperlink ref="F4" r:id="rId7" xr:uid="{560D2574-B117-4422-A6ED-1C11CD8CC70E}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{B8FAC93B-CC49-4BE6-8D09-A0EB3CF9B948}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{6D8D1D2D-DF5B-4221-A99A-3E4928C02DEC}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{D857CB49-CE35-4542-8052-0610B5F5F379}"/>
+    <hyperlink ref="F8" r:id="rId11" xr:uid="{C9945E4F-86FE-4BC1-9E6E-9A135ABE496A}"/>
+    <hyperlink ref="F9" r:id="rId12" xr:uid="{6888B37D-D7EF-4B8E-A256-70A0F6CCF6EC}"/>
+    <hyperlink ref="F10" r:id="rId13" xr:uid="{270DC089-49BC-49C8-BA14-6004185E04FD}"/>
+    <hyperlink ref="F11" r:id="rId14" xr:uid="{E0583577-0A1D-4E18-BFE7-3A21BCAF5C84}"/>
+    <hyperlink ref="F12" r:id="rId15" xr:uid="{AD917157-C1D1-42F8-9CC9-BCC7714B0632}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{7B09C03E-412B-40F6-95BB-0D97AC34005D}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{D2454152-61BF-4356-B6D0-5048EF088D72}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{49FECB2E-8A96-47ED-A302-9BFB492311FF}"/>
+    <hyperlink ref="F21" r:id="rId19" xr:uid="{78285BDE-DEE9-4A8F-93EB-1A0B9094F536}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{68E8C949-7489-49D5-BC53-D36517CDFA9F}"/>
+    <hyperlink ref="F23" r:id="rId21" xr:uid="{487F303E-E557-4D8B-8D5C-3063881E8B80}"/>
+    <hyperlink ref="F24" r:id="rId22" xr:uid="{5A081BA6-3CDE-4EE4-8E42-B36E7460FCE8}"/>
+    <hyperlink ref="F25" r:id="rId23" xr:uid="{F3A2807C-7A93-4956-91DC-78B4026448FC}"/>
+    <hyperlink ref="F26" r:id="rId24" xr:uid="{8C8D7B7E-B517-4D16-A105-E27AE50EE352}"/>
+    <hyperlink ref="F27" r:id="rId25" xr:uid="{2FD4DC0A-8535-4340-AEAC-160CBCFD66FC}"/>
+    <hyperlink ref="F28" r:id="rId26" xr:uid="{60361FCF-1425-4FFA-A129-0CA2FBE9F732}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D1F515-049C-4662-98F6-24192F6532AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6754AC17-B4EA-403E-BE98-4A612D61FF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
   <si>
     <t>nombre</t>
   </si>
@@ -220,45 +220,24 @@
     <t>vista26</t>
   </si>
   <si>
-    <t>Vista 26</t>
-  </si>
-  <si>
     <t>vista27</t>
   </si>
   <si>
-    <t>Vista 27</t>
-  </si>
-  <si>
     <t>vista28</t>
   </si>
   <si>
-    <t>Vista 28</t>
-  </si>
-  <si>
     <t>vista29</t>
   </si>
   <si>
-    <t>Vista 29</t>
-  </si>
-  <si>
     <t>vista30</t>
   </si>
   <si>
-    <t>Vista 30</t>
-  </si>
-  <si>
     <t>vista31</t>
   </si>
   <si>
-    <t>Vista 31</t>
-  </si>
-  <si>
     <t>vista32</t>
   </si>
   <si>
-    <t>Vista 32</t>
-  </si>
-  <si>
     <t>prueba 1</t>
   </si>
   <si>
@@ -346,17 +325,53 @@
     <t>https://app.powerbi.com/view?r=eyJrIjoiYTE2MWU2NzktNDM4ZS00N2IyLWI1ZTYtYjQyNjFlYjJkNjI4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
   <si>
-    <t>https://app.powerbi.com/view?r=eyJrIjoiMzkxMWYyN2EtOWM0Yi00NjAxLTkxY2QtYWE0YmFiNjNkMjZlIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
-  </si>
-  <si>
-    <t>https://app.powerbi.com/view?r=eyJrIjoiOGYzMjUxZTctY2UzMC00YmQwLThhMGQtZWQwMDZmOGVjYjgwIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection</t>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/osm/Index.html?CUT_COM=13119</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/localiza/Index.html?CUT_COM=13119</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/usodelsuelo/Index.html?CUT_COM=13119</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/agua/Index.html?CUT_COM=13119</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/humedales/Index.html?CUT_COM=13119</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/glaciares/Index.html?CUT_COM=13119</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/bip/Index.html?CUT_COM=13119</t>
+  </si>
+  <si>
+    <t>Gestión Territorial</t>
+  </si>
+  <si>
+    <t>Localizaciones</t>
+  </si>
+  <si>
+    <t>Usos del Suelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capas Hídricas </t>
+  </si>
+  <si>
+    <t>Humedales</t>
+  </si>
+  <si>
+    <t>Glaciares</t>
+  </si>
+  <si>
+    <t>Requisitos BIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +407,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,7 +423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -418,23 +440,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -442,9 +453,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -803,10 +813,13 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -825,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -839,13 +852,13 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -865,7 +878,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -885,7 +898,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -905,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -925,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -942,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -965,7 +978,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -985,7 +998,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1005,7 +1018,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1025,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1045,7 +1058,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1065,7 +1078,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1085,7 +1098,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1105,7 +1118,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1125,7 +1138,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1145,7 +1158,7 @@
         <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1165,7 +1178,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1185,7 +1198,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1205,7 +1218,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1222,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1245,7 +1258,7 @@
         <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1265,7 +1278,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1285,7 +1298,7 @@
         <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1305,7 +1318,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1325,7 +1338,7 @@
         <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1339,118 +1352,133 @@
         <v>62</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>105</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>65</v>
+      <c r="E28" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>67</v>
+      <c r="E29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>69</v>
+      <c r="E30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>71</v>
+      <c r="E31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
-        <v>75</v>
+      <c r="E33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1480,8 +1508,13 @@
     <hyperlink ref="F24" r:id="rId22" xr:uid="{5A081BA6-3CDE-4EE4-8E42-B36E7460FCE8}"/>
     <hyperlink ref="F25" r:id="rId23" xr:uid="{F3A2807C-7A93-4956-91DC-78B4026448FC}"/>
     <hyperlink ref="F26" r:id="rId24" xr:uid="{8C8D7B7E-B517-4D16-A105-E27AE50EE352}"/>
-    <hyperlink ref="F27" r:id="rId25" xr:uid="{2FD4DC0A-8535-4340-AEAC-160CBCFD66FC}"/>
-    <hyperlink ref="F28" r:id="rId26" xr:uid="{60361FCF-1425-4FFA-A129-0CA2FBE9F732}"/>
+    <hyperlink ref="F27" r:id="rId25" xr:uid="{0EA15FA8-5EF5-4AA2-A94F-3C3EFDDE0825}"/>
+    <hyperlink ref="F28" r:id="rId26" xr:uid="{8865A9F0-1987-464E-9764-D0844DFE4CE3}"/>
+    <hyperlink ref="F29" r:id="rId27" xr:uid="{ECBC525C-77D6-4E8F-94AA-0280D077A65D}"/>
+    <hyperlink ref="F30" r:id="rId28" xr:uid="{60C314C4-9A7B-4D8B-B0AC-48E3808FA95A}"/>
+    <hyperlink ref="F31" r:id="rId29" xr:uid="{E3CBDEBC-95F8-4864-8E68-747E1AAD3E8B}"/>
+    <hyperlink ref="F32" r:id="rId30" xr:uid="{34444E28-C71C-4DAA-8CC3-C7175C68B91C}"/>
+    <hyperlink ref="F33" r:id="rId31" xr:uid="{437ADB87-77F5-4149-B9C3-235D1090F56B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6754AC17-B4EA-403E-BE98-4A612D61FF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADD578A-FFE4-4823-9910-A740ACB23A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>nombre</t>
   </si>
@@ -736,70 +736,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -810,711 +796,612 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="B2" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>62</v>
       </c>
       <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>64</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>65</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" xr:uid="{B61BABAA-9EC9-4C68-82B4-B544FEDE5030}"/>
-    <hyperlink ref="F16" r:id="rId2" xr:uid="{DAB7966F-A3C0-4055-B795-32C52B6340DE}"/>
-    <hyperlink ref="F15" r:id="rId3" xr:uid="{CE9A5EFD-9767-4463-AD62-2FA2AD26F08F}"/>
-    <hyperlink ref="F13" r:id="rId4" xr:uid="{B55325C7-7312-4742-A4CC-ACC00A52E9F9}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{4F02E340-4B99-4BAE-8059-E5C4B0A8692A}"/>
-    <hyperlink ref="F3" r:id="rId6" xr:uid="{0A52EBC6-0E22-4242-81E2-CDF61CE93879}"/>
-    <hyperlink ref="F4" r:id="rId7" xr:uid="{560D2574-B117-4422-A6ED-1C11CD8CC70E}"/>
-    <hyperlink ref="F5" r:id="rId8" xr:uid="{B8FAC93B-CC49-4BE6-8D09-A0EB3CF9B948}"/>
-    <hyperlink ref="F6" r:id="rId9" xr:uid="{6D8D1D2D-DF5B-4221-A99A-3E4928C02DEC}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{D857CB49-CE35-4542-8052-0610B5F5F379}"/>
-    <hyperlink ref="F8" r:id="rId11" xr:uid="{C9945E4F-86FE-4BC1-9E6E-9A135ABE496A}"/>
-    <hyperlink ref="F9" r:id="rId12" xr:uid="{6888B37D-D7EF-4B8E-A256-70A0F6CCF6EC}"/>
-    <hyperlink ref="F10" r:id="rId13" xr:uid="{270DC089-49BC-49C8-BA14-6004185E04FD}"/>
-    <hyperlink ref="F11" r:id="rId14" xr:uid="{E0583577-0A1D-4E18-BFE7-3A21BCAF5C84}"/>
-    <hyperlink ref="F12" r:id="rId15" xr:uid="{AD917157-C1D1-42F8-9CC9-BCC7714B0632}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{7B09C03E-412B-40F6-95BB-0D97AC34005D}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{D2454152-61BF-4356-B6D0-5048EF088D72}"/>
-    <hyperlink ref="F20" r:id="rId18" xr:uid="{49FECB2E-8A96-47ED-A302-9BFB492311FF}"/>
-    <hyperlink ref="F21" r:id="rId19" xr:uid="{78285BDE-DEE9-4A8F-93EB-1A0B9094F536}"/>
-    <hyperlink ref="F22" r:id="rId20" xr:uid="{68E8C949-7489-49D5-BC53-D36517CDFA9F}"/>
-    <hyperlink ref="F23" r:id="rId21" xr:uid="{487F303E-E557-4D8B-8D5C-3063881E8B80}"/>
-    <hyperlink ref="F24" r:id="rId22" xr:uid="{5A081BA6-3CDE-4EE4-8E42-B36E7460FCE8}"/>
-    <hyperlink ref="F25" r:id="rId23" xr:uid="{F3A2807C-7A93-4956-91DC-78B4026448FC}"/>
-    <hyperlink ref="F26" r:id="rId24" xr:uid="{8C8D7B7E-B517-4D16-A105-E27AE50EE352}"/>
-    <hyperlink ref="F27" r:id="rId25" xr:uid="{0EA15FA8-5EF5-4AA2-A94F-3C3EFDDE0825}"/>
-    <hyperlink ref="F28" r:id="rId26" xr:uid="{8865A9F0-1987-464E-9764-D0844DFE4CE3}"/>
-    <hyperlink ref="F29" r:id="rId27" xr:uid="{ECBC525C-77D6-4E8F-94AA-0280D077A65D}"/>
-    <hyperlink ref="F30" r:id="rId28" xr:uid="{60C314C4-9A7B-4D8B-B0AC-48E3808FA95A}"/>
-    <hyperlink ref="F31" r:id="rId29" xr:uid="{E3CBDEBC-95F8-4864-8E68-747E1AAD3E8B}"/>
-    <hyperlink ref="F32" r:id="rId30" xr:uid="{34444E28-C71C-4DAA-8CC3-C7175C68B91C}"/>
-    <hyperlink ref="F33" r:id="rId31" xr:uid="{437ADB87-77F5-4149-B9C3-235D1090F56B}"/>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{B61BABAA-9EC9-4C68-82B4-B544FEDE5030}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{DAB7966F-A3C0-4055-B795-32C52B6340DE}"/>
+    <hyperlink ref="E15" r:id="rId3" xr:uid="{CE9A5EFD-9767-4463-AD62-2FA2AD26F08F}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{B55325C7-7312-4742-A4CC-ACC00A52E9F9}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{4F02E340-4B99-4BAE-8059-E5C4B0A8692A}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{0A52EBC6-0E22-4242-81E2-CDF61CE93879}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{560D2574-B117-4422-A6ED-1C11CD8CC70E}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{B8FAC93B-CC49-4BE6-8D09-A0EB3CF9B948}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{6D8D1D2D-DF5B-4221-A99A-3E4928C02DEC}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{D857CB49-CE35-4542-8052-0610B5F5F379}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{C9945E4F-86FE-4BC1-9E6E-9A135ABE496A}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{6888B37D-D7EF-4B8E-A256-70A0F6CCF6EC}"/>
+    <hyperlink ref="E10" r:id="rId13" xr:uid="{270DC089-49BC-49C8-BA14-6004185E04FD}"/>
+    <hyperlink ref="E11" r:id="rId14" xr:uid="{E0583577-0A1D-4E18-BFE7-3A21BCAF5C84}"/>
+    <hyperlink ref="E12" r:id="rId15" xr:uid="{AD917157-C1D1-42F8-9CC9-BCC7714B0632}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{7B09C03E-412B-40F6-95BB-0D97AC34005D}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{D2454152-61BF-4356-B6D0-5048EF088D72}"/>
+    <hyperlink ref="E20" r:id="rId18" xr:uid="{49FECB2E-8A96-47ED-A302-9BFB492311FF}"/>
+    <hyperlink ref="E21" r:id="rId19" xr:uid="{78285BDE-DEE9-4A8F-93EB-1A0B9094F536}"/>
+    <hyperlink ref="E22" r:id="rId20" xr:uid="{68E8C949-7489-49D5-BC53-D36517CDFA9F}"/>
+    <hyperlink ref="E23" r:id="rId21" xr:uid="{487F303E-E557-4D8B-8D5C-3063881E8B80}"/>
+    <hyperlink ref="E24" r:id="rId22" xr:uid="{5A081BA6-3CDE-4EE4-8E42-B36E7460FCE8}"/>
+    <hyperlink ref="E25" r:id="rId23" xr:uid="{F3A2807C-7A93-4956-91DC-78B4026448FC}"/>
+    <hyperlink ref="E26" r:id="rId24" xr:uid="{8C8D7B7E-B517-4D16-A105-E27AE50EE352}"/>
+    <hyperlink ref="E27" r:id="rId25" xr:uid="{0EA15FA8-5EF5-4AA2-A94F-3C3EFDDE0825}"/>
+    <hyperlink ref="E28" r:id="rId26" xr:uid="{8865A9F0-1987-464E-9764-D0844DFE4CE3}"/>
+    <hyperlink ref="E29" r:id="rId27" xr:uid="{ECBC525C-77D6-4E8F-94AA-0280D077A65D}"/>
+    <hyperlink ref="E30" r:id="rId28" xr:uid="{60C314C4-9A7B-4D8B-B0AC-48E3808FA95A}"/>
+    <hyperlink ref="E31" r:id="rId29" xr:uid="{E3CBDEBC-95F8-4864-8E68-747E1AAD3E8B}"/>
+    <hyperlink ref="E32" r:id="rId30" xr:uid="{34444E28-C71C-4DAA-8CC3-C7175C68B91C}"/>
+    <hyperlink ref="E33" r:id="rId31" xr:uid="{437ADB87-77F5-4149-B9C3-235D1090F56B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADD578A-FFE4-4823-9910-A740ACB23A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D8FED-9194-4694-BC44-37B43EF3AF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="144">
   <si>
     <t>nombre</t>
   </si>
@@ -365,6 +365,102 @@
   </si>
   <si>
     <t>Requisitos BIP</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>l3</t>
+  </si>
+  <si>
+    <t>l4</t>
+  </si>
+  <si>
+    <t>l5</t>
+  </si>
+  <si>
+    <t>l6</t>
+  </si>
+  <si>
+    <t>l7</t>
+  </si>
+  <si>
+    <t>l8</t>
+  </si>
+  <si>
+    <t>l9</t>
+  </si>
+  <si>
+    <t>l10</t>
+  </si>
+  <si>
+    <t>l11</t>
+  </si>
+  <si>
+    <t>l12</t>
+  </si>
+  <si>
+    <t>l13</t>
+  </si>
+  <si>
+    <t>l14</t>
+  </si>
+  <si>
+    <t>l15</t>
+  </si>
+  <si>
+    <t>l16</t>
+  </si>
+  <si>
+    <t>l17</t>
+  </si>
+  <si>
+    <t>l18</t>
+  </si>
+  <si>
+    <t>l19</t>
+  </si>
+  <si>
+    <t>l20</t>
+  </si>
+  <si>
+    <t>l21</t>
+  </si>
+  <si>
+    <t>l22</t>
+  </si>
+  <si>
+    <t>l23</t>
+  </si>
+  <si>
+    <t>l24</t>
+  </si>
+  <si>
+    <t>l25</t>
+  </si>
+  <si>
+    <t>l26</t>
+  </si>
+  <si>
+    <t>l27</t>
+  </si>
+  <si>
+    <t>l28</t>
+  </si>
+  <si>
+    <t>l29</t>
+  </si>
+  <si>
+    <t>l30</t>
+  </si>
+  <si>
+    <t>l31</t>
+  </si>
+  <si>
+    <t>l32</t>
   </si>
 </sst>
 </file>
@@ -828,8 +924,8 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>112</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -845,8 +941,8 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>113</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -862,8 +958,8 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>114</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -879,8 +975,8 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>115</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -896,8 +992,8 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>116</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -913,8 +1009,8 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>117</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -930,8 +1026,8 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>118</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -947,8 +1043,8 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
-        <v>8</v>
+      <c r="B9" t="s">
+        <v>119</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -964,8 +1060,8 @@
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="B10" t="s">
+        <v>120</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -981,8 +1077,8 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <v>10</v>
+      <c r="B11" t="s">
+        <v>121</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -998,8 +1094,8 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
-        <v>11</v>
+      <c r="B12" t="s">
+        <v>122</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1015,8 +1111,8 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13">
-        <v>12</v>
+      <c r="B13" t="s">
+        <v>123</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1032,8 +1128,8 @@
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14">
-        <v>13</v>
+      <c r="B14" t="s">
+        <v>124</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1049,8 +1145,8 @@
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B15">
-        <v>14</v>
+      <c r="B15" t="s">
+        <v>125</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1066,8 +1162,8 @@
       <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B16">
-        <v>15</v>
+      <c r="B16" t="s">
+        <v>126</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1083,8 +1179,8 @@
       <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="B17">
-        <v>16</v>
+      <c r="B17" t="s">
+        <v>127</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1100,8 +1196,8 @@
       <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B18">
-        <v>17</v>
+      <c r="B18" t="s">
+        <v>128</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1117,8 +1213,8 @@
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19">
-        <v>18</v>
+      <c r="B19" t="s">
+        <v>129</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1134,8 +1230,8 @@
       <c r="A20" t="s">
         <v>49</v>
       </c>
-      <c r="B20">
-        <v>19</v>
+      <c r="B20" t="s">
+        <v>130</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1151,8 +1247,8 @@
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21">
-        <v>20</v>
+      <c r="B21" t="s">
+        <v>131</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1168,8 +1264,8 @@
       <c r="A22" t="s">
         <v>52</v>
       </c>
-      <c r="B22">
-        <v>21</v>
+      <c r="B22" t="s">
+        <v>132</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1185,8 +1281,8 @@
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23">
-        <v>22</v>
+      <c r="B23" t="s">
+        <v>133</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1202,8 +1298,8 @@
       <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24">
-        <v>23</v>
+      <c r="B24" t="s">
+        <v>134</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1219,8 +1315,8 @@
       <c r="A25" t="s">
         <v>58</v>
       </c>
-      <c r="B25">
-        <v>24</v>
+      <c r="B25" t="s">
+        <v>135</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1236,8 +1332,8 @@
       <c r="A26" t="s">
         <v>60</v>
       </c>
-      <c r="B26">
-        <v>25</v>
+      <c r="B26" t="s">
+        <v>136</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1253,8 +1349,8 @@
       <c r="A27" t="s">
         <v>62</v>
       </c>
-      <c r="B27">
-        <v>26</v>
+      <c r="B27" t="s">
+        <v>137</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1270,8 +1366,8 @@
       <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="B28">
-        <v>27</v>
+      <c r="B28" t="s">
+        <v>138</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1287,8 +1383,8 @@
       <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="B29">
-        <v>28</v>
+      <c r="B29" t="s">
+        <v>139</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1304,8 +1400,8 @@
       <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B30">
-        <v>29</v>
+      <c r="B30" t="s">
+        <v>140</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1321,8 +1417,8 @@
       <c r="A31" t="s">
         <v>66</v>
       </c>
-      <c r="B31">
-        <v>30</v>
+      <c r="B31" t="s">
+        <v>141</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1338,8 +1434,8 @@
       <c r="A32" t="s">
         <v>67</v>
       </c>
-      <c r="B32">
-        <v>31</v>
+      <c r="B32" t="s">
+        <v>142</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1355,8 +1451,8 @@
       <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="B33">
-        <v>32</v>
+      <c r="B33" t="s">
+        <v>143</v>
       </c>
       <c r="C33">
         <v>0</v>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D8FED-9194-4694-BC44-37B43EF3AF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F05B1C8-1B24-4B00-B718-F4158121C4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="144">
   <si>
     <t>nombre</t>
   </si>
@@ -467,7 +467,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +510,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF8B949E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -541,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -551,6 +557,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -832,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,44 +851,59 @@
     <col min="2" max="2" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -892,10 +914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B33"/>
+      <selection activeCell="F2" sqref="F2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,7 +925,7 @@
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +941,11 @@
       <c r="E1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -936,8 +961,11 @@
       <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -953,8 +981,11 @@
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -970,8 +1001,11 @@
       <c r="E4" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -987,8 +1021,11 @@
       <c r="E5" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1004,8 +1041,11 @@
       <c r="E6" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1021,8 +1061,11 @@
       <c r="E7" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1038,8 +1081,11 @@
       <c r="E8" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1055,8 +1101,11 @@
       <c r="E9" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1072,8 +1121,11 @@
       <c r="E10" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1089,8 +1141,11 @@
       <c r="E11" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1106,8 +1161,11 @@
       <c r="E12" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1123,8 +1181,11 @@
       <c r="E13" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1140,8 +1201,11 @@
       <c r="E14" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1157,8 +1221,11 @@
       <c r="E15" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1174,8 +1241,11 @@
       <c r="E16" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1191,8 +1261,11 @@
       <c r="E17" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1208,8 +1281,11 @@
       <c r="E18" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1225,8 +1301,11 @@
       <c r="E19" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1242,8 +1321,11 @@
       <c r="E20" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1259,8 +1341,11 @@
       <c r="E21" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1276,8 +1361,11 @@
       <c r="E22" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1293,8 +1381,11 @@
       <c r="E23" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1310,8 +1401,11 @@
       <c r="E24" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1327,8 +1421,11 @@
       <c r="E25" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1344,8 +1441,11 @@
       <c r="E26" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1361,8 +1461,11 @@
       <c r="E27" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1378,8 +1481,11 @@
       <c r="E28" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1395,8 +1501,11 @@
       <c r="E29" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1412,8 +1521,11 @@
       <c r="E30" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1429,8 +1541,11 @@
       <c r="E31" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1446,8 +1561,11 @@
       <c r="E32" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1462,6 +1580,9 @@
       </c>
       <c r="E33" s="3" t="s">
         <v>104</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F05B1C8-1B24-4B00-B718-F4158121C4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B896DB5A-8BCF-45FA-AAC7-3F2DBA0D5BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
-    <sheet name="maipu" sheetId="2" r:id="rId2"/>
-    <sheet name="cerrillos" sheetId="3" r:id="rId3"/>
-    <sheet name="la_reina" sheetId="4" r:id="rId4"/>
-    <sheet name="las_condes" sheetId="5" r:id="rId5"/>
+    <sheet name="jv_agua" sheetId="6" r:id="rId2"/>
+    <sheet name="maipu" sheetId="2" r:id="rId3"/>
+    <sheet name="cerrillos" sheetId="3" r:id="rId4"/>
+    <sheet name="la_reina" sheetId="4" r:id="rId5"/>
+    <sheet name="las_condes" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="170">
   <si>
     <t>nombre</t>
   </si>
@@ -461,13 +462,91 @@
   </si>
   <si>
     <t>l32</t>
+  </si>
+  <si>
+    <t>jv_agua</t>
+  </si>
+  <si>
+    <t>Junta Vigilancia Agua</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/usodelsuelo/Index.html?CUT_COM=8311</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/agua/Index.html?CUT_COM=8305</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/humedales/Index.html?CUT_COM=8101</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/glaciares/Index.html?CUT_COM=8314</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/bip/Index.html?CUT_COM=8110</t>
+  </si>
+  <si>
+    <t>Pueblos Indígenas</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZTdmYmU0Y2MtMWI4NC00NTA0LTg3OGQtNjNjZDZjMzMxZDM3IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Cadena Impacto: Agricultura</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZDgzNmYxODctNzZiMi00ZTBkLTg1YTAtMzU1YTVlMjU5ZDE1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Presencia Especies</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiOTdmMzkyYjctYTFhMC00YjUwLWIxZDUtODdhM2QwNzM1YTE2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Planificación Territorial</t>
+  </si>
+  <si>
+    <t>Elementos de Turismo</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/turismo/Index.html?CUT_COM=8108</t>
+  </si>
+  <si>
+    <t>Capas Localización e Hídricas</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/jvacbb/Index.html?CUT_COM=8301</t>
+  </si>
+  <si>
+    <t>Mapa Territorios Indígenas</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/indigenas/Index.html?CUT_COM=8314</t>
+  </si>
+  <si>
+    <t>Cifras Territorios Indígenas</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYmIwNmI5NDMtNDAxMy00ZDhlLTk3MjgtMTZlOThmOTFjYTA0IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Clima-Suelo</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiNTM4MTAwNDMtZDUyOS00ZTM5LWJiODgtY2IyOTViMmYzMGIyIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Caudales y Precipitaciones</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYjVhNzljNGUtZTA0ZS00ZmY1LWI4YjgtMWFmODVhMDBkZGI0IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,13 +595,34 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -547,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -558,6 +658,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -839,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,6 +1020,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -913,11 +1038,429 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="135.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F17" s="6">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{F5705B82-2F34-40B1-A5C4-C08206DAA7EE}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{A90B9470-A49C-4B9A-A213-FDE478C464F6}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{8F34CE1D-4984-4353-9A65-7AF23DF7E54A}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{6F8905CA-E69E-439C-B1CB-77EAD8C85088}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{DDDCF090-3DC8-4CF9-81A7-3306C02454F4}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{3C0AFAF5-3832-4CB1-82BB-EEB4527FFC0A}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{837B24CF-1272-4273-A4FB-AE350864FA86}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,7 +2167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6E881B-F2B6-4262-8F6D-A22265938ED3}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1673,7 +2216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AB371E-7AA1-4BA4-9AFC-41AAAE23F4D0}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1722,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDAFECD-9D30-42D2-A937-A90746DCCA59}">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B896DB5A-8BCF-45FA-AAC7-3F2DBA0D5BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69C1F2D-DCDA-47F4-971D-D92E8A2890CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1419,26 +1419,17 @@
       <c r="J16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F17" s="6">
-        <v>5</v>
-      </c>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
       <c r="J17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
       <c r="J18" s="6"/>
       <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="6"/>
-      <c r="M19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69C1F2D-DCDA-47F4-971D-D92E8A2890CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF40EA5-062C-4AC5-9937-5489435E0F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4296" yWindow="2436" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="178">
   <si>
     <t>nombre</t>
   </si>
@@ -540,13 +540,37 @@
   </si>
   <si>
     <t>https://app.powerbi.com/view?r=eyJrIjoiYjVhNzljNGUtZTA0ZS00ZmY1LWI4YjgtMWFmODVhMDBkZGI0IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>fondo_portada</t>
+  </si>
+  <si>
+    <t>color_head</t>
+  </si>
+  <si>
+    <t>#18547e</t>
+  </si>
+  <si>
+    <t>#44b795</t>
+  </si>
+  <si>
+    <t>#44b796</t>
+  </si>
+  <si>
+    <t>#44b797</t>
+  </si>
+  <si>
+    <t>#44b798</t>
+  </si>
+  <si>
+    <t>#44b799</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +634,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -647,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -671,6 +702,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -953,19 +987,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,8 +1011,14 @@
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -986,8 +1028,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -997,8 +1045,14 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1008,8 +1062,14 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1019,8 +1079,14 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1030,8 +1096,15 @@
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF40EA5-062C-4AC5-9937-5489435E0F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C1C0CC-08A2-4465-AAE2-0940D8A79F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4296" yWindow="2436" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="168">
   <si>
     <t>nombre</t>
   </si>
@@ -470,66 +470,18 @@
     <t>Junta Vigilancia Agua</t>
   </si>
   <si>
-    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/usodelsuelo/Index.html?CUT_COM=8311</t>
-  </si>
-  <si>
-    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/agua/Index.html?CUT_COM=8305</t>
-  </si>
-  <si>
     <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/humedales/Index.html?CUT_COM=8101</t>
   </si>
   <si>
     <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/glaciares/Index.html?CUT_COM=8314</t>
   </si>
   <si>
-    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/bip/Index.html?CUT_COM=8110</t>
-  </si>
-  <si>
-    <t>Pueblos Indígenas</t>
-  </si>
-  <si>
-    <t>https://app.powerbi.com/view?r=eyJrIjoiZTdmYmU0Y2MtMWI4NC00NTA0LTg3OGQtNjNjZDZjMzMxZDM3IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
-  </si>
-  <si>
     <t>Cadena Impacto: Agricultura</t>
   </si>
   <si>
     <t>https://app.powerbi.com/view?r=eyJrIjoiZDgzNmYxODctNzZiMi00ZTBkLTg1YTAtMzU1YTVlMjU5ZDE1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
   <si>
-    <t>Presencia Especies</t>
-  </si>
-  <si>
-    <t>https://app.powerbi.com/view?r=eyJrIjoiOTdmMzkyYjctYTFhMC00YjUwLWIxZDUtODdhM2QwNzM1YTE2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
-  </si>
-  <si>
-    <t>Planificación Territorial</t>
-  </si>
-  <si>
-    <t>Elementos de Turismo</t>
-  </si>
-  <si>
-    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/turismo/Index.html?CUT_COM=8108</t>
-  </si>
-  <si>
-    <t>Capas Localización e Hídricas</t>
-  </si>
-  <si>
-    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/jvacbb/Index.html?CUT_COM=8301</t>
-  </si>
-  <si>
-    <t>Mapa Territorios Indígenas</t>
-  </si>
-  <si>
-    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/indigenas/Index.html?CUT_COM=8314</t>
-  </si>
-  <si>
-    <t>Cifras Territorios Indígenas</t>
-  </si>
-  <si>
-    <t>https://app.powerbi.com/view?r=eyJrIjoiYmIwNmI5NDMtNDAxMy00ZDhlLTk3MjgtMTZlOThmOTFjYTA0IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
-  </si>
-  <si>
     <t>Clima-Suelo</t>
   </si>
   <si>
@@ -564,6 +516,24 @@
   </si>
   <si>
     <t>#44b799</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_vigilancia/Index.html?comunas=[8101,8102,8103,8104,8105,8108,8109,8110,8112,8301,8302,8303,8304,8305,8306,8307,8308,8309,8310,8311,8312,8313,8314,9201,9202,9203,9204,9205,9206,9209,9210,9211,16106,16109]</t>
+  </si>
+  <si>
+    <t>https://app-data-i.users.earthengine.app/view/waterdetection</t>
+  </si>
+  <si>
+    <t>Monitoreo Cuerpo de Agua</t>
+  </si>
+  <si>
+    <t>I18</t>
+  </si>
+  <si>
+    <t>https://app-data-i.users.earthengine.app/view/dataclimachfiltro?Codcom=08</t>
+  </si>
+  <si>
+    <t>Variables Climáticas</t>
   </si>
 </sst>
 </file>
@@ -689,7 +659,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,6 +674,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -989,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,10 +984,10 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1028,11 +1000,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>173</v>
+      <c r="D2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1045,11 +1017,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>174</v>
+      <c r="D3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1062,11 +1034,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>175</v>
+      <c r="D4" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1079,11 +1051,11 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>176</v>
+      <c r="D5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1096,11 +1068,11 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>177</v>
+      <c r="D6" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1112,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1096,7 @@
     <col min="5" max="5" width="135.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1144,376 +1116,184 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>115</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>147</v>
+      <c r="E2" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>114</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>116</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="F4" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>118</v>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="6">
+      <c r="E8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="6">
-        <v>5</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>121</v>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>165</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="6">
-        <v>5</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="6">
-        <v>5</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="6">
-        <v>5</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="D9" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" s="6">
-        <v>5</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="6">
-        <v>5</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{F5705B82-2F34-40B1-A5C4-C08206DAA7EE}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{A90B9470-A49C-4B9A-A213-FDE478C464F6}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{8F34CE1D-4984-4353-9A65-7AF23DF7E54A}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{6F8905CA-E69E-439C-B1CB-77EAD8C85088}"/>
-    <hyperlink ref="E14" r:id="rId5" xr:uid="{DDDCF090-3DC8-4CF9-81A7-3306C02454F4}"/>
-    <hyperlink ref="E15" r:id="rId6" xr:uid="{3C0AFAF5-3832-4CB1-82BB-EEB4527FFC0A}"/>
-    <hyperlink ref="E16" r:id="rId7" xr:uid="{837B24CF-1272-4273-A4FB-AE350864FA86}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{A90B9470-A49C-4B9A-A213-FDE478C464F6}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{3C0AFAF5-3832-4CB1-82BB-EEB4527FFC0A}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{837B24CF-1272-4273-A4FB-AE350864FA86}"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_vigilancia/Index.html?comunas=[8101,8102,8103,8104,8105,8108,8109,8110,8112,8301,8302,8303,8304,8305,8306,8307,8308,8309,8310,8311,8312,8313,8314,9201,9202,9203,9204,9205,9206,9209,9210,9211,16106,16109]" xr:uid="{5951990C-5AFD-41DD-A2A1-21DAB3A4BF45}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{2AFCCBB1-F2D4-4156-B718-0A1E12FD9174}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C1C0CC-08A2-4465-AAE2-0940D8A79F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C261AF-47CD-491C-8798-5D3C30830171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -467,18 +467,9 @@
     <t>jv_agua</t>
   </si>
   <si>
-    <t>Junta Vigilancia Agua</t>
-  </si>
-  <si>
     <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/humedales/Index.html?CUT_COM=8101</t>
   </si>
   <si>
-    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/glaciares/Index.html?CUT_COM=8314</t>
-  </si>
-  <si>
-    <t>Cadena Impacto: Agricultura</t>
-  </si>
-  <si>
     <t>https://app.powerbi.com/view?r=eyJrIjoiZDgzNmYxODctNzZiMi00ZTBkLTg1YTAtMzU1YTVlMjU5ZDE1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
   <si>
@@ -524,16 +515,25 @@
     <t>https://app-data-i.users.earthengine.app/view/waterdetection</t>
   </si>
   <si>
-    <t>Monitoreo Cuerpo de Agua</t>
-  </si>
-  <si>
     <t>I18</t>
   </si>
   <si>
-    <t>https://app-data-i.users.earthengine.app/view/dataclimachfiltro?Codcom=08</t>
-  </si>
-  <si>
     <t>Variables Climáticas</t>
+  </si>
+  <si>
+    <t>https://app-data-i.users.earthengine.app/view/variablesclimaticas</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiOWY0Y2MxYTgtNjE4OS00MTJmLWJlYmMtYjYzM2JiZTBkODNlIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Cuerpo de Agua</t>
+  </si>
+  <si>
+    <t>Impacto Agricultura</t>
+  </si>
+  <si>
+    <t>Junta Vigilancia Biobío</t>
   </si>
 </sst>
 </file>
@@ -961,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -984,10 +984,10 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1001,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1018,10 +1018,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1035,10 +1035,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1052,10 +1052,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1063,16 +1063,16 @@
         <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1130,7 @@
         <v>108</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>146</v>
+        <v>165</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>147</v>
+        <v>162</v>
+      </c>
+      <c r="E4" t="s">
+        <v>163</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>149</v>
+        <v>110</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1268,16 +1268,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" t="s">
-        <v>166</v>
+        <v>109</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
@@ -1289,11 +1292,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{A90B9470-A49C-4B9A-A213-FDE478C464F6}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{A90B9470-A49C-4B9A-A213-FDE478C464F6}"/>
     <hyperlink ref="E7" r:id="rId2" xr:uid="{3C0AFAF5-3832-4CB1-82BB-EEB4527FFC0A}"/>
     <hyperlink ref="E8" r:id="rId3" xr:uid="{837B24CF-1272-4273-A4FB-AE350864FA86}"/>
     <hyperlink ref="E2" r:id="rId4" display="https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_vigilancia/Index.html?comunas=[8101,8102,8103,8104,8105,8108,8109,8110,8112,8301,8302,8303,8304,8305,8306,8307,8308,8309,8310,8311,8312,8313,8314,9201,9202,9203,9204,9205,9206,9209,9210,9211,16106,16109]" xr:uid="{5951990C-5AFD-41DD-A2A1-21DAB3A4BF45}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{2AFCCBB1-F2D4-4156-B718-0A1E12FD9174}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{2AFCCBB1-F2D4-4156-B718-0A1E12FD9174}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{914FEBCE-5F2E-48B4-860E-899A46D04829}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C261AF-47CD-491C-8798-5D3C30830171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B80475-023A-431A-8971-F50953A1E72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -527,13 +527,13 @@
     <t>https://app.powerbi.com/view?r=eyJrIjoiOWY0Y2MxYTgtNjE4OS00MTJmLWJlYmMtYjYzM2JiZTBkODNlIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
   <si>
-    <t>Cuerpo de Agua</t>
-  </si>
-  <si>
     <t>Impacto Agricultura</t>
   </si>
   <si>
     <t>Junta Vigilancia Biobío</t>
+  </si>
+  <si>
+    <t>Cuerpos de Agua</t>
   </si>
 </sst>
 </file>
@@ -961,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1063,7 +1063,7 @@
         <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>160</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>146</v>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B80475-023A-431A-8971-F50953A1E72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6F9752-496E-4632-B15F-A89CABD57B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="175">
   <si>
     <t>nombre</t>
   </si>
@@ -534,6 +534,27 @@
   </si>
   <si>
     <t>Cuerpos de Agua</t>
+  </si>
+  <si>
+    <t>I19</t>
+  </si>
+  <si>
+    <t>Derecho de Agua</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiODgyOTliNWQtYjdhZi00YzRhLWI5NTktNzIyNGFiZDJhNTcwIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>Humedales Mapa</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYmU3NGViMWMtMWVmZS00MGNmLTlmOTItMmFjMDBiY2UxYjIzIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Humedales Cifras</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,26 +1289,52 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
+        <v>169</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6F9752-496E-4632-B15F-A89CABD57B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DCE39A-6DFD-4943-A32E-F0E3ED5707F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="181">
   <si>
     <t>nombre</t>
   </si>
@@ -555,6 +555,24 @@
   </si>
   <si>
     <t>Humedales Cifras</t>
+  </si>
+  <si>
+    <t>I21</t>
+  </si>
+  <si>
+    <t>Pozos</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZDEyNGU5YTMtYjVjNi00YzU1LTlmOWQtNjY2NmZlMzViMTBiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>Balance Hídrico</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiNTdlZDQ3MGQtZjEwMS00ZjgwLTkzOTktNWJkMjc0NTAyZmIxIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
 </sst>
 </file>
@@ -1105,16 +1123,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="41.6640625" customWidth="1"/>
-    <col min="5" max="5" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="162.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1288,6 +1306,9 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
       <c r="B9" t="s">
         <v>168</v>
       </c>
@@ -1300,10 +1321,16 @@
       <c r="E9" t="s">
         <v>170</v>
       </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
       <c r="B10" t="s">
         <v>161</v>
       </c>
@@ -1316,8 +1343,14 @@
       <c r="E10" s="9" t="s">
         <v>145</v>
       </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
       <c r="B11" t="s">
         <v>171</v>
       </c>
@@ -1335,6 +1368,46 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DCE39A-6DFD-4943-A32E-F0E3ED5707F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBC610E-9CA4-44CF-92CA-017A1FC51BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,9 +467,6 @@
     <t>jv_agua</t>
   </si>
   <si>
-    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/humedales/Index.html?CUT_COM=8101</t>
-  </si>
-  <si>
     <t>https://app.powerbi.com/view?r=eyJrIjoiZDgzNmYxODctNzZiMi00ZTBkLTg1YTAtMzU1YTVlMjU5ZDE1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
   <si>
@@ -573,6 +570,9 @@
   </si>
   <si>
     <t>https://app.powerbi.com/view?r=eyJrIjoiNTdlZDQ3MGQtZjEwMS00ZjgwLTkzOTktNWJkMjc0NTAyZmIxIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_humedales/Index.html?comunas=[8101,8102,8103,8104,8105,8108,8109,8110,8112,8301,8302,8303,8304,8305,8306,8307,8308,8309,8310,8311,8312,8313,8314,9201,9202,9203,9204,9205,9206,9209,9210,9211,16106,16109]</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1023,10 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
         <v>151</v>
-      </c>
-      <c r="E1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1040,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1057,10 +1057,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1074,10 +1074,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1091,10 +1091,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1102,16 +1102,16 @@
         <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,7 +1169,7 @@
         <v>108</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
         <v>162</v>
-      </c>
-      <c r="E4" t="s">
-        <v>163</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1231,7 +1231,7 @@
         <v>110</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1310,16 +1310,16 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" t="s">
         <v>169</v>
-      </c>
-      <c r="E9" t="s">
-        <v>170</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1332,16 +1332,16 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -1352,16 +1352,16 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -1374,16 +1374,16 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" t="s">
         <v>176</v>
-      </c>
-      <c r="E12" t="s">
-        <v>177</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -1394,16 +1394,16 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" t="s">
         <v>179</v>
-      </c>
-      <c r="E13" t="s">
-        <v>180</v>
       </c>
       <c r="F13">
         <v>5</v>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBC610E-9CA4-44CF-92CA-017A1FC51BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1134A07-6F4C-409B-9EF9-BC09BFE92043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="184">
   <si>
     <t>nombre</t>
   </si>
@@ -573,6 +573,15 @@
   </si>
   <si>
     <t>https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_humedales/Index.html?comunas=[8101,8102,8103,8104,8105,8108,8109,8110,8112,8301,8302,8303,8304,8305,8306,8307,8308,8309,8310,8311,8312,8313,8314,9201,9202,9203,9204,9205,9206,9209,9210,9211,16106,16109]</t>
+  </si>
+  <si>
+    <t>I23</t>
+  </si>
+  <si>
+    <t>Calidad de Agua</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYTA5ZmFkNjQtMGZmZC00NGVkLTg4NGEtMGY1MjNkMjM2MjU5IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1407,6 +1416,23 @@
       </c>
       <c r="F13">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1134A07-6F4C-409B-9EF9-BC09BFE92043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7FAE81-D4AC-401B-A1EE-F5E84FC02CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
-    <sheet name="jv_agua" sheetId="6" r:id="rId2"/>
-    <sheet name="maipu" sheetId="2" r:id="rId3"/>
-    <sheet name="cerrillos" sheetId="3" r:id="rId4"/>
-    <sheet name="la_reina" sheetId="4" r:id="rId5"/>
-    <sheet name="las_condes" sheetId="5" r:id="rId6"/>
+    <sheet name="la_cruz" sheetId="7" r:id="rId2"/>
+    <sheet name="jv_agua" sheetId="6" r:id="rId3"/>
+    <sheet name="maipu" sheetId="2" r:id="rId4"/>
+    <sheet name="cerrillos" sheetId="3" r:id="rId5"/>
+    <sheet name="la_reina" sheetId="4" r:id="rId6"/>
+    <sheet name="las_condes" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="188">
   <si>
     <t>nombre</t>
   </si>
@@ -582,13 +583,25 @@
   </si>
   <si>
     <t>https://app.powerbi.com/view?r=eyJrIjoiYTA5ZmFkNjQtMGZmZC00NGVkLTg4NGEtMGY1MjNkMjM2MjU5IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>la_cruz</t>
+  </si>
+  <si>
+    <t>Comuna de La Cruz</t>
+  </si>
+  <si>
+    <t>#6bc8e8</t>
+  </si>
+  <si>
+    <t>#0079ad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +672,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -696,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -726,6 +746,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1007,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,6 +1144,23 @@
         <v>157</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,11 +1169,272 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68730C3E-30BC-4E68-8188-CB54A8581971}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{2247604C-B1F9-4915-9FE8-57672D85F912}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{50DDC4A2-B9C4-4B8B-AD20-A4A4B9D56BB9}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{33BB06A3-685F-44BA-BD46-D9A9BF2B16A6}"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_vigilancia/Index.html?comunas=[8101,8102,8103,8104,8105,8108,8109,8110,8112,8301,8302,8303,8304,8305,8306,8307,8308,8309,8310,8311,8312,8313,8314,9201,9202,9203,9204,9205,9206,9209,9210,9211,16106,16109]" xr:uid="{DF2B6108-6396-4930-A1F6-48CA86A2F8A9}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{6D82AF1A-1A33-49E2-AE07-E368737ECB28}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{B2D83BC6-8063-4DE1-9B51-AAD018C67BB4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1449,7 +1748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
   <dimension ref="A1:F33"/>
   <sheetViews>
@@ -2161,7 +2460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6E881B-F2B6-4262-8F6D-A22265938ED3}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2210,7 +2509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AB371E-7AA1-4BA4-9AFC-41AAAE23F4D0}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2259,7 +2558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDAFECD-9D30-42D2-A937-A90746DCCA59}">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7FAE81-D4AC-401B-A1EE-F5E84FC02CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDB9886-A12D-438C-A90D-0841CCC5D0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -1030,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1172,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68730C3E-30BC-4E68-8188-CB54A8581971}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDB9886-A12D-438C-A90D-0841CCC5D0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A30F696-B61E-42CD-9893-0451EB6223A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="188">
   <si>
     <t>nombre</t>
   </si>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,15 +1170,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68730C3E-30BC-4E68-8188-CB54A8581971}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1194,8 +1194,11 @@
       <c r="E1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1211,8 +1214,11 @@
       <c r="E2" s="12" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1228,8 +1234,11 @@
       <c r="E3" s="12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1245,8 +1254,11 @@
       <c r="E4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1262,8 +1274,11 @@
       <c r="E5" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1279,8 +1294,11 @@
       <c r="E6" s="10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1296,8 +1314,11 @@
       <c r="E7" s="10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1313,8 +1334,11 @@
       <c r="E8" s="10" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1330,8 +1354,11 @@
       <c r="E9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1347,8 +1374,11 @@
       <c r="E10" s="9" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1364,8 +1394,11 @@
       <c r="E11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1381,8 +1414,11 @@
       <c r="E12" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1395,11 +1431,14 @@
       <c r="D13" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1414,6 +1453,9 @@
       </c>
       <c r="E14" t="s">
         <v>183</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1424,6 +1466,7 @@
     <hyperlink ref="E2" r:id="rId4" display="https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_vigilancia/Index.html?comunas=[8101,8102,8103,8104,8105,8108,8109,8110,8112,8301,8302,8303,8304,8305,8306,8307,8308,8309,8310,8311,8312,8313,8314,9201,9202,9203,9204,9205,9206,9209,9210,9211,16106,16109]" xr:uid="{DF2B6108-6396-4930-A1F6-48CA86A2F8A9}"/>
     <hyperlink ref="E3" r:id="rId5" xr:uid="{6D82AF1A-1A33-49E2-AE07-E368737ECB28}"/>
     <hyperlink ref="E5" r:id="rId6" xr:uid="{B2D83BC6-8063-4DE1-9B51-AAD018C67BB4}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{D362051C-1F36-4F8E-A0C2-FA6687BE40B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1433,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:E14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1732,6 +1775,9 @@
       </c>
       <c r="E14" t="s">
         <v>183</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1752,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A30F696-B61E-42CD-9893-0451EB6223A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E18418-0645-447D-AFC6-E77E0BD0940A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1154,11 +1154,11 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1172,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68730C3E-30BC-4E68-8188-CB54A8581971}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E18418-0645-447D-AFC6-E77E0BD0940A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5741B435-200F-488C-8128-ADA386B15DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="la_reina" sheetId="4" r:id="rId6"/>
     <sheet name="las_condes" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="209">
   <si>
     <t>nombre</t>
   </si>
@@ -595,6 +595,69 @@
   </si>
   <si>
     <t>#0079ad</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiOTNlMWRhZjEtMzNlNS00YTI5LTljMzItYThkOTMxNGNjOTRiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZTQzZjk4ZjItNTIxYS00OWJjLWE2MjQtOTU2ZTdiNmZjOWVmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZDg4ZmNmNzItY2RhNy00ZWZkLWE1NTMtZTE1YWY0ZmUwN2MzIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiMmFhYzY2YmMtNDBmOC00ZTdkLWI5NjUtZTU3OGQ2NTJmNDU1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiMDY5YWE1ZjItYzAzNC00YmE0LTliNjQtYjFkYTZiYjBhZTBiIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiMGM4M2Q5NTEtODljNy00ZGZhLTk0NWItZWUwMDExNjNhNTg2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZWRlZDQ0ODQtODU3OS00ZDJjLWJiZWQtOWRjZmE2NDIwODk5IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZTQ4OGU0YTEtNGUxZC00YWI3LWIxMzItNDZkY2ZhNjA0OGQ2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiMjU2OGI3MmYtY2U4Mi00ZDJkLThlMWItM2RiZjAwZmVhMzY2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/distancia/Index.html?CUT_COM=5504</t>
+  </si>
+  <si>
+    <t>Censo 2017</t>
+  </si>
+  <si>
+    <t>Proyecciones Población</t>
+  </si>
+  <si>
+    <t>Distancias a Servicios</t>
+  </si>
+  <si>
+    <t>Empresas</t>
+  </si>
+  <si>
+    <t>Salud y Educación Municipal</t>
+  </si>
+  <si>
+    <t>Estadísticas Vitales</t>
+  </si>
+  <si>
+    <t>Pueblos Indígenas</t>
+  </si>
+  <si>
+    <t>Cadena Impacto: Agricultura</t>
+  </si>
+  <si>
+    <t>Presencia Especies</t>
+  </si>
+  <si>
+    <t>Mapas Distancias Servicios</t>
+  </si>
+  <si>
+    <t>vista33</t>
   </si>
 </sst>
 </file>
@@ -716,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -747,6 +810,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1030,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1170,13 +1242,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68730C3E-30BC-4E68-8188-CB54A8581971}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="46.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1208,14 +1283,15 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>158</v>
+      <c r="E2" s="14" t="str">
+        <f>+"https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/agua/Index.html?CUT_COM="&amp;F3</f>
+        <v>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/agua/Index.html?CUT_COM=6</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1228,14 +1304,15 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>159</v>
+      <c r="D3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="14" t="str">
+        <f>+"https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/humedales/Index.html?CUT_COM="&amp;F4</f>
+        <v>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/humedales/Index.html?CUT_COM=6</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1248,14 +1325,15 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" t="s">
-        <v>162</v>
+      <c r="D4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="14" t="str">
+        <f>+"https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/glaciares/Index.html?CUT_COM="&amp;F5</f>
+        <v>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/glaciares/Index.html?CUT_COM=6</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1268,14 +1346,15 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>163</v>
+      <c r="D5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f>+"https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/bip/Index.html?CUT_COM="&amp;F6</f>
+        <v>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/bip/Index.html?CUT_COM=6</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1288,14 +1367,14 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>145</v>
+      <c r="D6" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1308,14 +1387,14 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>147</v>
+      <c r="D7" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1328,99 +1407,99 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>149</v>
+      <c r="D8" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" t="s">
-        <v>169</v>
+      <c r="D9" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>180</v>
+      <c r="D10" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" t="s">
-        <v>172</v>
+      <c r="D11" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>193</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" t="s">
-        <v>176</v>
+      <c r="D12" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>177</v>
@@ -1428,19 +1507,19 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>179</v>
+      <c r="D13" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>181</v>
@@ -1448,25 +1527,47 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" t="s">
-        <v>183</v>
+      <c r="D14" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{2247604C-B1F9-4915-9FE8-57672D85F912}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{50DDC4A2-B9C4-4B8B-AD20-A4A4B9D56BB9}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{33BB06A3-685F-44BA-BD46-D9A9BF2B16A6}"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_vigilancia/Index.html?comunas=[8101,8102,8103,8104,8105,8108,8109,8110,8112,8301,8302,8303,8304,8305,8306,8307,8308,8309,8310,8311,8312,8313,8314,9201,9202,9203,9204,9205,9206,9209,9210,9211,16106,16109]" xr:uid="{DF2B6108-6396-4930-A1F6-48CA86A2F8A9}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{6D82AF1A-1A33-49E2-AE07-E368737ECB28}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{B2D83BC6-8063-4DE1-9B51-AAD018C67BB4}"/>
-    <hyperlink ref="E13" r:id="rId7" xr:uid="{D362051C-1F36-4F8E-A0C2-FA6687BE40B0}"/>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{E633FCF8-3B5D-4322-BC7E-1293E786AE4B}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{32FE5989-8FB9-4867-84DD-B73CED95325B}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{D85C01E0-E1E6-4AD0-A57A-33FC95EC9372}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{737D16CE-B394-4597-B7CE-0D66B4DDF29B}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{D0E1C02C-785F-4C68-8AA5-0B2AE92C9809}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{D8D16D31-1FB4-4B73-8493-D8EC4F7F9891}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{DD92BBD1-A22B-4DC2-95EA-30F64DAFBFA1}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{369D09DA-F177-448D-974F-81380126A49F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2511,7 +2612,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5741B435-200F-488C-8128-ADA386B15DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAD55C0-8D49-43D5-BAE5-50BE58BA3758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="213">
   <si>
     <t>nombre</t>
   </si>
@@ -658,6 +658,18 @@
   </si>
   <si>
     <t>vista33</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/agua/Index.html?CUT_COM=5504</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/humedales/Index.html?CUT_COM=5504</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/glaciares/Index.html?CUT_COM=5504</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/bip/Index.html?CUT_COM=5504</t>
   </si>
 </sst>
 </file>
@@ -1245,12 +1257,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="46.33203125" customWidth="1"/>
+    <col min="5" max="5" width="96.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1286,9 +1298,8 @@
       <c r="D2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="14" t="str">
-        <f>+"https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/agua/Index.html?CUT_COM="&amp;F3</f>
-        <v>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/agua/Index.html?CUT_COM=6</v>
+      <c r="E2" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -1307,9 +1318,8 @@
       <c r="D3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="14" t="str">
-        <f>+"https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/humedales/Index.html?CUT_COM="&amp;F4</f>
-        <v>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/humedales/Index.html?CUT_COM=6</v>
+      <c r="E3" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -1328,9 +1338,8 @@
       <c r="D4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="14" t="str">
-        <f>+"https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/glaciares/Index.html?CUT_COM="&amp;F5</f>
-        <v>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/glaciares/Index.html?CUT_COM=6</v>
+      <c r="E4" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -1349,9 +1358,8 @@
       <c r="D5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="14" t="str">
-        <f>+"https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/bip/Index.html?CUT_COM="&amp;F6</f>
-        <v>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/bip/Index.html?CUT_COM=6</v>
+      <c r="E5" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -1450,7 +1458,7 @@
       <c r="D10" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F10">
@@ -1470,7 +1478,7 @@
       <c r="D11" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="2" t="s">
         <v>193</v>
       </c>
       <c r="F11">
@@ -1490,7 +1498,7 @@
       <c r="D12" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F12">
@@ -1510,7 +1518,7 @@
       <c r="D13" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>195</v>
       </c>
       <c r="F13">
@@ -1530,7 +1538,7 @@
       <c r="D14" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>196</v>
       </c>
       <c r="F14">
@@ -1550,7 +1558,7 @@
       <c r="D15" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>197</v>
       </c>
       <c r="F15">
@@ -1559,16 +1567,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" xr:uid="{E633FCF8-3B5D-4322-BC7E-1293E786AE4B}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{32FE5989-8FB9-4867-84DD-B73CED95325B}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{D85C01E0-E1E6-4AD0-A57A-33FC95EC9372}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{737D16CE-B394-4597-B7CE-0D66B4DDF29B}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{D0E1C02C-785F-4C68-8AA5-0B2AE92C9809}"/>
-    <hyperlink ref="E12" r:id="rId6" xr:uid="{D8D16D31-1FB4-4B73-8493-D8EC4F7F9891}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{DD92BBD1-A22B-4DC2-95EA-30F64DAFBFA1}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{369D09DA-F177-448D-974F-81380126A49F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAD55C0-8D49-43D5-BAE5-50BE58BA3758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE35B7F6-33F0-4332-BB01-2B1219183A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="217">
   <si>
     <t>nombre</t>
   </si>
@@ -670,6 +670,18 @@
   </si>
   <si>
     <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/bip/Index.html?CUT_COM=5504</t>
+  </si>
+  <si>
+    <t>I24</t>
+  </si>
+  <si>
+    <t>I25</t>
+  </si>
+  <si>
+    <t>I26</t>
+  </si>
+  <si>
+    <t>I27</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1269,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B10" sqref="B10:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,7 +1502,7 @@
         <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1510,7 +1522,7 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1530,7 +1542,7 @@
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1550,7 +1562,7 @@
         <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="C15">
         <v>0</v>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE35B7F6-33F0-4332-BB01-2B1219183A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D32412B-2834-43D1-B5D2-8DB15FE4E8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="231">
   <si>
     <t>nombre</t>
   </si>
@@ -666,9 +677,6 @@
     <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/humedales/Index.html?CUT_COM=5504</t>
   </si>
   <si>
-    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/glaciares/Index.html?CUT_COM=5504</t>
-  </si>
-  <si>
     <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/bip/Index.html?CUT_COM=5504</t>
   </si>
   <si>
@@ -682,6 +690,51 @@
   </si>
   <si>
     <t>I27</t>
+  </si>
+  <si>
+    <t>Indicadores Climáticos</t>
+  </si>
+  <si>
+    <t>Recursos e Infraestructura</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/recursoseinfraestructura/Index.html?CUT_COM=5504</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/osm/Index.html?CUT_COM=5504</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/localiza/Index.html?CUT_COM=5504</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones2/usodelsuelo/Index.html?CUT_COM=5504</t>
+  </si>
+  <si>
+    <t>I28</t>
+  </si>
+  <si>
+    <t>I29</t>
+  </si>
+  <si>
+    <t>I30</t>
+  </si>
+  <si>
+    <t>I31</t>
+  </si>
+  <si>
+    <t>vista37</t>
+  </si>
+  <si>
+    <t>vista41</t>
+  </si>
+  <si>
+    <t>vista45</t>
+  </si>
+  <si>
+    <t>vista49</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiN2YzNmU2YmMtOWE2ZC00ZGYzLTk2MDAtODMxOTI4YTFlZmU4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
 </sst>
 </file>
@@ -803,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -842,6 +895,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1266,14 +1322,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68730C3E-30BC-4E68-8188-CB54A8581971}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="96.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1348,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>211</v>
+        <v>216</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -1371,7 +1428,7 @@
         <v>111</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -1502,7 +1559,7 @@
         <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1522,7 +1579,7 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1542,7 +1599,7 @@
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1562,7 +1619,7 @@
         <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1577,8 +1634,91 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{E6586F8B-EE82-49CF-8774-DEC818B87445}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D32412B-2834-43D1-B5D2-8DB15FE4E8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F058D1DA-889B-427E-A76F-9BDF1CCC2021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -26,23 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="233">
   <si>
     <t>nombre</t>
   </si>
@@ -735,6 +724,12 @@
   </si>
   <si>
     <t>https://app.powerbi.com/view?r=eyJrIjoiN2YzNmU2YmMtOWE2ZC00ZGYzLTk2MDAtODMxOTI4YTFlZmU4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/publicaciones3/incendio_jv/Index.html?comunas=[8101,8102,8103,8104,8105,8108,8109,8110,8112,8301,8302,8303,8304,8305,8306,8307,8308,8309,8310,8311,8312,8313,8314,9201,9202,9203,9204,9205,9206,9209,9210,9211,16106,16109]</t>
+  </si>
+  <si>
+    <t>Incendios Febrero 2023</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68730C3E-30BC-4E68-8188-CB54A8581971}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1725,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1765,7 +1760,7 @@
         <v>115</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>108</v>
@@ -2028,6 +2023,26 @@
         <v>183</v>
       </c>
       <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
     </row>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F058D1DA-889B-427E-A76F-9BDF1CCC2021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E8FE22-DF9E-439B-B521-2B9838F3BCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1720,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1754,19 +1754,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>158</v>
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>231</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -1774,19 +1774,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -1794,41 +1794,39 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" t="s">
-        <v>162</v>
+        <v>166</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1838,19 +1836,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>145</v>
+        <v>110</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1860,19 +1858,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1882,19 +1880,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1904,19 +1902,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" t="s">
-        <v>169</v>
+        <v>148</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1926,81 +1924,83 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>180</v>
+        <v>168</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -2008,19 +2008,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -2028,33 +2028,36 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{A90B9470-A49C-4B9A-A213-FDE478C464F6}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{3C0AFAF5-3832-4CB1-82BB-EEB4527FFC0A}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{837B24CF-1272-4273-A4FB-AE350864FA86}"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_vigilancia/Index.html?comunas=[8101,8102,8103,8104,8105,8108,8109,8110,8112,8301,8302,8303,8304,8305,8306,8307,8308,8309,8310,8311,8312,8313,8314,9201,9202,9203,9204,9205,9206,9209,9210,9211,16106,16109]" xr:uid="{5951990C-5AFD-41DD-A2A1-21DAB3A4BF45}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{2AFCCBB1-F2D4-4156-B718-0A1E12FD9174}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{914FEBCE-5F2E-48B4-860E-899A46D04829}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{A90B9470-A49C-4B9A-A213-FDE478C464F6}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{3C0AFAF5-3832-4CB1-82BB-EEB4527FFC0A}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{837B24CF-1272-4273-A4FB-AE350864FA86}"/>
+    <hyperlink ref="E3" r:id="rId4" display="https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_vigilancia/Index.html?comunas=[8101,8102,8103,8104,8105,8108,8109,8110,8112,8301,8302,8303,8304,8305,8306,8307,8308,8309,8310,8311,8312,8313,8314,9201,9202,9203,9204,9205,9206,9209,9210,9211,16106,16109]" xr:uid="{5951990C-5AFD-41DD-A2A1-21DAB3A4BF45}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{2AFCCBB1-F2D4-4156-B718-0A1E12FD9174}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{914FEBCE-5F2E-48B4-860E-899A46D04829}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E8FE22-DF9E-439B-B521-2B9838F3BCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F995B2AE-A7CC-4EEE-B1D7-356415CDCEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
-    <sheet name="la_cruz" sheetId="7" r:id="rId2"/>
-    <sheet name="jv_agua" sheetId="6" r:id="rId3"/>
-    <sheet name="maipu" sheetId="2" r:id="rId4"/>
-    <sheet name="cerrillos" sheetId="3" r:id="rId5"/>
-    <sheet name="la_reina" sheetId="4" r:id="rId6"/>
-    <sheet name="las_condes" sheetId="5" r:id="rId7"/>
+    <sheet name="blue_oak" sheetId="8" r:id="rId2"/>
+    <sheet name="la_cruz" sheetId="7" r:id="rId3"/>
+    <sheet name="jv_agua" sheetId="6" r:id="rId4"/>
+    <sheet name="maipu" sheetId="2" r:id="rId5"/>
+    <sheet name="cerrillos" sheetId="3" r:id="rId6"/>
+    <sheet name="la_reina" sheetId="4" r:id="rId7"/>
+    <sheet name="las_condes" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="237">
   <si>
     <t>nombre</t>
   </si>
@@ -730,6 +731,18 @@
   </si>
   <si>
     <t>Incendios Febrero 2023</t>
+  </si>
+  <si>
+    <t>blue_oak</t>
+  </si>
+  <si>
+    <t>BLUE OAK CORP</t>
+  </si>
+  <si>
+    <t>#0047ab</t>
+  </si>
+  <si>
+    <t>#85aaa5</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,6 +1321,23 @@
         <v>186</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,6 +1346,408 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0BA114-9F5F-4B47-9ACE-D566E63C9291}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="96.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{E5E02342-4D66-4712-982D-AA44B0311A7B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68730C3E-30BC-4E68-8188-CB54A8581971}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -1718,11 +2150,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E04E6-0F47-474B-99EF-DA5B2882C1F1}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2063,7 +2495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32A449F-F747-43D4-8805-653B6A2D4CD8}">
   <dimension ref="A1:F33"/>
   <sheetViews>
@@ -2775,7 +3207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6E881B-F2B6-4262-8F6D-A22265938ED3}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2824,7 +3256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AB371E-7AA1-4BA4-9AFC-41AAAE23F4D0}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2873,7 +3305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDAFECD-9D30-42D2-A937-A90746DCCA59}">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F995B2AE-A7CC-4EEE-B1D7-356415CDCEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB8FCE-A185-4B40-8CFD-080FA911A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="244">
   <si>
     <t>nombre</t>
   </si>
@@ -743,6 +743,27 @@
   </si>
   <si>
     <t>#85aaa5</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_aventura/Index.html?comunas=[10103,10401,10402,10403,10404]</t>
+  </si>
+  <si>
+    <t>Geolocalizaciones</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYzFmNjZhNjAtZTRlZC00ZjE2LWFiYjgtZjc2YTIxZWE0ZDVkIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Demografía</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZDQxZWQzOWUtNmVlNy00MDFiLWFhMWEtYWE2NDg0MzkyYmRkIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiZTQxYjFmZTMtODBhZC00YTAzLWJjM2EtNzE3ODc5MzZjMjU2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1347,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0BA114-9F5F-4B47-9ACE-D566E63C9291}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1390,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -1410,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -1430,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -1450,299 +1471,53 @@
         <v>0</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" t="s">
-        <v>220</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" t="s">
-        <v>221</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
+      <c r="D15" s="16"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{E5E02342-4D66-4712-982D-AA44B0311A7B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB8FCE-A185-4B40-8CFD-080FA911A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E1C413-B74E-423B-A3A3-5C6240FA3E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -742,9 +742,6 @@
     <t>#0047ab</t>
   </si>
   <si>
-    <t>#85aaa5</t>
-  </si>
-  <si>
     <t>https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_aventura/Index.html?comunas=[10103,10401,10402,10403,10404]</t>
   </si>
   <si>
@@ -764,6 +761,9 @@
   </si>
   <si>
     <t>https://app.powerbi.com/view?r=eyJrIjoiZTQxYjFmZTMtODBhZC00YTAzLWJjM2EtNzE3ODc5MzZjMjU2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>#ffffff</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1356,7 +1356,7 @@
         <v>235</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0BA114-9F5F-4B47-9ACE-D566E63C9291}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
@@ -1411,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -1474,7 +1474,7 @@
         <v>201</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5">
         <v>6</v>

--- a/comunas_origen.xlsx
+++ b/comunas_origen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Data-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E1C413-B74E-423B-A3A3-5C6240FA3E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4784B2C8-C8E5-4741-AB3C-CDEBBBED77FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comunas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="248">
   <si>
     <t>nombre</t>
   </si>
@@ -764,6 +764,18 @@
   </si>
   <si>
     <t>#ffffff</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiY2ZlODY4MzYtNTZjMy00OGNmLTkzNzktZGM0MzQ0YzVmMDNmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Distancias</t>
+  </si>
+  <si>
+    <t>https://sud-austral.github.io/MAPA_RELEASE/luis/bases/mainMulti_aventura2/Index.html?comunas=[10103,10401,10402,10403,10404]</t>
+  </si>
+  <si>
+    <t>Uso Suelo</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1370,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0BA114-9F5F-4B47-9ACE-D566E63C9291}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H8:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,12 +1493,38 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" s="16"/>
@@ -1518,6 +1556,10 @@
       <c r="D15" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{EBC7C6CD-CF7F-4651-AC02-8185567F9DE8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
